--- a/Assets/기획서/테이블총정리_20160228_양정운.xlsx
+++ b/Assets/기획서/테이블총정리_20160228_양정운.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12330" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12330" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="난이도테이블" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="광고 이벤트 조건" sheetId="7" r:id="rId6"/>
     <sheet name="대학교 테이블" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1400,12 +1400,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1421,13 +1415,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1902,7 +1902,7 @@
       <c r="D14" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="35" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1916,7 +1916,7 @@
       <c r="D15" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="E15" s="30"/>
+      <c r="E15" s="35"/>
     </row>
     <row r="16" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="15" t="s">
@@ -1928,7 +1928,7 @@
       <c r="D16" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="E16" s="30"/>
+      <c r="E16" s="35"/>
     </row>
     <row r="17" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="15" t="s">
@@ -1940,7 +1940,7 @@
       <c r="D17" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="E17" s="30"/>
+      <c r="E17" s="35"/>
     </row>
     <row r="18" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="15" t="s">
@@ -1952,7 +1952,7 @@
       <c r="D18" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="E18" s="30"/>
+      <c r="E18" s="35"/>
     </row>
     <row r="19" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="15" t="s">
@@ -1964,7 +1964,7 @@
       <c r="D19" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="E19" s="30"/>
+      <c r="E19" s="35"/>
     </row>
     <row r="20" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="15" t="s">
@@ -1976,7 +1976,7 @@
       <c r="D20" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="E20" s="30"/>
+      <c r="E20" s="35"/>
     </row>
     <row r="21" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="15" t="s">
@@ -1988,7 +1988,7 @@
       <c r="D21" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="E21" s="30"/>
+      <c r="E21" s="35"/>
     </row>
     <row r="22" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -2000,7 +2000,7 @@
       <c r="D22" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="E22" s="31"/>
+      <c r="E22" s="36"/>
     </row>
     <row r="23" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="15" t="s">
@@ -2084,7 +2084,7 @@
   <dimension ref="B5:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C18"/>
+      <selection activeCell="C20" sqref="C9:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2299,6 +2299,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2306,8 +2307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2466,7 +2467,7 @@
       <c r="D19" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="35" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2480,7 +2481,7 @@
       <c r="D20" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="E20" s="30"/>
+      <c r="E20" s="35"/>
     </row>
     <row r="21" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="15" t="s">
@@ -2492,7 +2493,7 @@
       <c r="D21" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="30"/>
+      <c r="E21" s="35"/>
     </row>
     <row r="22" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="15" t="s">
@@ -2504,7 +2505,7 @@
       <c r="D22" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="E22" s="30"/>
+      <c r="E22" s="35"/>
     </row>
     <row r="23" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="15" t="s">
@@ -2516,7 +2517,7 @@
       <c r="D23" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="E23" s="30"/>
+      <c r="E23" s="35"/>
     </row>
     <row r="24" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="15" t="s">
@@ -2528,7 +2529,7 @@
       <c r="D24" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="E24" s="30"/>
+      <c r="E24" s="35"/>
     </row>
     <row r="25" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="15" t="s">
@@ -2540,7 +2541,7 @@
       <c r="D25" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="E25" s="30"/>
+      <c r="E25" s="35"/>
     </row>
     <row r="26" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="15" t="s">
@@ -2552,7 +2553,7 @@
       <c r="D26" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="E26" s="30"/>
+      <c r="E26" s="35"/>
     </row>
     <row r="27" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="19" t="s">
@@ -2564,7 +2565,7 @@
       <c r="D27" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="E27" s="31"/>
+      <c r="E27" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2579,8 +2580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:E39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2651,7 +2652,7 @@
       <c r="D12" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="34" t="s">
         <v>246</v>
       </c>
     </row>
@@ -2747,7 +2748,7 @@
       <c r="D19" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="35" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2761,7 +2762,7 @@
       <c r="D20" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="E20" s="30"/>
+      <c r="E20" s="35"/>
     </row>
     <row r="21" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="15" t="s">
@@ -2773,7 +2774,7 @@
       <c r="D21" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="E21" s="30"/>
+      <c r="E21" s="35"/>
     </row>
     <row r="22" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="15" t="s">
@@ -2785,7 +2786,7 @@
       <c r="D22" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="E22" s="30"/>
+      <c r="E22" s="35"/>
     </row>
     <row r="23" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="15" t="s">
@@ -2797,7 +2798,7 @@
       <c r="D23" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="E23" s="30"/>
+      <c r="E23" s="35"/>
     </row>
     <row r="24" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="15" t="s">
@@ -2809,7 +2810,7 @@
       <c r="D24" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="E24" s="30"/>
+      <c r="E24" s="35"/>
     </row>
     <row r="25" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="15" t="s">
@@ -2860,51 +2861,51 @@
       <c r="E28" s="29"/>
     </row>
     <row r="35" spans="2:5" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
     </row>
     <row r="36" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
     </row>
     <row r="37" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
     </row>
     <row r="38" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
     </row>
     <row r="39" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2920,8 +2921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B9:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2952,34 +2953,34 @@
       <c r="C11" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="39" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="39"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="35"/>
     </row>
     <row r="13" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="39">
+      <c r="B13" s="38">
         <v>2</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="35" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="39"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="D14" s="30"/>
+      <c r="D14" s="35"/>
     </row>
     <row r="15" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="15">
@@ -2997,7 +2998,7 @@
       <c r="C16" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="D16" s="31"/>
+      <c r="D16" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3017,7 +3018,7 @@
   <dimension ref="B5:E23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
